--- a/data/pca/factorExposure/factorExposure_2015-03-04.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-03-04.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,15 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +720,45 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01745001576973283</v>
+        <v>0.0104867945888777</v>
       </c>
       <c r="C2">
-        <v>-0.0290045546525977</v>
+        <v>0.05265131807519567</v>
       </c>
       <c r="D2">
-        <v>-0.1419327939954466</v>
+        <v>0.1112303255953843</v>
       </c>
       <c r="E2">
-        <v>-0.05940096267504862</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.06164926882280729</v>
+      </c>
+      <c r="F2">
+        <v>0.03558940338348717</v>
+      </c>
+      <c r="G2">
+        <v>0.1465056264191036</v>
+      </c>
+      <c r="H2">
+        <v>-0.05359659729959787</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +772,45 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.04414867171441804</v>
+        <v>0.02054783824775621</v>
       </c>
       <c r="C4">
-        <v>-0.07942949722680399</v>
+        <v>0.1148532424141726</v>
       </c>
       <c r="D4">
-        <v>-0.1027940286021307</v>
+        <v>0.1054898427738539</v>
       </c>
       <c r="E4">
-        <v>-0.1145619498679941</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.06520621717648357</v>
+      </c>
+      <c r="F4">
+        <v>0.09092127851382661</v>
+      </c>
+      <c r="G4">
+        <v>0.02132038499360562</v>
+      </c>
+      <c r="H4">
+        <v>0.07394649510379356</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +824,305 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.03015735170954339</v>
+        <v>0.03475634414795831</v>
       </c>
       <c r="C6">
-        <v>-0.02065438952079763</v>
+        <v>0.03916725216811519</v>
       </c>
       <c r="D6">
-        <v>-0.111822598095536</v>
+        <v>0.0891604126543368</v>
       </c>
       <c r="E6">
-        <v>-0.07619359459171325</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.09278928915971868</v>
+      </c>
+      <c r="F6">
+        <v>0.03995715952137577</v>
+      </c>
+      <c r="G6">
+        <v>-0.001271462321932207</v>
+      </c>
+      <c r="H6">
+        <v>-0.01404837957564859</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.003615452400799418</v>
+        <v>0.006266710747864059</v>
       </c>
       <c r="C7">
-        <v>-0.02654558443326101</v>
+        <v>0.04194074018758631</v>
       </c>
       <c r="D7">
-        <v>-0.09921348698372487</v>
+        <v>0.08313367665254237</v>
       </c>
       <c r="E7">
-        <v>-0.04414940169697854</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.08495152583818946</v>
+      </c>
+      <c r="F7">
+        <v>0.01271350460082466</v>
+      </c>
+      <c r="G7">
+        <v>-0.009086090856585672</v>
+      </c>
+      <c r="H7">
+        <v>0.02825044165508579</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.0003601654268404365</v>
+        <v>-0.005419695368169728</v>
       </c>
       <c r="C8">
-        <v>-0.02816051754748843</v>
+        <v>0.03783934605100592</v>
       </c>
       <c r="D8">
-        <v>-0.07496848531453676</v>
+        <v>0.05553493754264862</v>
       </c>
       <c r="E8">
-        <v>-0.05892456059386943</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.05327752527686376</v>
+      </c>
+      <c r="F8">
+        <v>0.05022706912229151</v>
+      </c>
+      <c r="G8">
+        <v>0.07511342479797313</v>
+      </c>
+      <c r="H8">
+        <v>0.04172120328225048</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03360923176685622</v>
+        <v>0.01424624486744781</v>
       </c>
       <c r="C9">
-        <v>-0.06873377206423621</v>
+        <v>0.09414614306249183</v>
       </c>
       <c r="D9">
-        <v>-0.1074571901636678</v>
+        <v>0.09369236160718082</v>
       </c>
       <c r="E9">
-        <v>-0.09432511552471098</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.05691990096866864</v>
+      </c>
+      <c r="F9">
+        <v>0.05982282209922828</v>
+      </c>
+      <c r="G9">
+        <v>0.00312553379752624</v>
+      </c>
+      <c r="H9">
+        <v>0.02640691859409287</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.197989058684198</v>
+        <v>0.2452088841470652</v>
       </c>
       <c r="C10">
-        <v>0.1551890122508892</v>
+        <v>-0.09235110106352216</v>
       </c>
       <c r="D10">
-        <v>0.03796016018275441</v>
+        <v>-0.01140138776527004</v>
       </c>
       <c r="E10">
-        <v>-0.03012385813126437</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.0195352972539462</v>
+      </c>
+      <c r="F10">
+        <v>0.0465573025957041</v>
+      </c>
+      <c r="G10">
+        <v>-0.005522279485895475</v>
+      </c>
+      <c r="H10">
+        <v>-0.00150993256193202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.01252196144673681</v>
+        <v>0.009840798291158364</v>
       </c>
       <c r="C11">
-        <v>-0.04308254989214168</v>
+        <v>0.06125485637739735</v>
       </c>
       <c r="D11">
-        <v>-0.04138237468997839</v>
+        <v>0.03460114291101828</v>
       </c>
       <c r="E11">
-        <v>0.006963896083418642</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.04015152804259228</v>
+      </c>
+      <c r="F11">
+        <v>-0.0113511347390368</v>
+      </c>
+      <c r="G11">
+        <v>-0.003914786770782672</v>
+      </c>
+      <c r="H11">
+        <v>0.02139942433596993</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.01097993810463002</v>
+        <v>0.01013684713343054</v>
       </c>
       <c r="C12">
-        <v>-0.04265378556424122</v>
+        <v>0.05148537455582639</v>
       </c>
       <c r="D12">
-        <v>-0.05761037728204511</v>
+        <v>0.0427474872558418</v>
       </c>
       <c r="E12">
-        <v>-0.01169181980558018</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.03457772027467945</v>
+      </c>
+      <c r="F12">
+        <v>-0.01177228758923379</v>
+      </c>
+      <c r="G12">
+        <v>-0.01232675893285648</v>
+      </c>
+      <c r="H12">
+        <v>-0.0163287125352976</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.008548114671009188</v>
+        <v>0.004363241117012818</v>
       </c>
       <c r="C13">
-        <v>-0.03108837208944058</v>
+        <v>0.06068957234462621</v>
       </c>
       <c r="D13">
-        <v>-0.1331067603078924</v>
+        <v>0.1453156701409</v>
       </c>
       <c r="E13">
-        <v>-0.08475772010819511</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.08655772479758118</v>
+      </c>
+      <c r="F13">
+        <v>0.04011204197518126</v>
+      </c>
+      <c r="G13">
+        <v>0.06238916687966617</v>
+      </c>
+      <c r="H13">
+        <v>-0.07025215287207721</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01301789364573931</v>
+        <v>0.001340422511427598</v>
       </c>
       <c r="C14">
-        <v>-0.01787094222994653</v>
+        <v>0.03340530184463932</v>
       </c>
       <c r="D14">
-        <v>-0.07136782702352253</v>
+        <v>0.08167539965273519</v>
       </c>
       <c r="E14">
-        <v>-0.04005618715757193</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.09259219149412842</v>
+      </c>
+      <c r="F14">
+        <v>0.03347839769335506</v>
+      </c>
+      <c r="G14">
+        <v>0.01506352803986066</v>
+      </c>
+      <c r="H14">
+        <v>-0.02876399627554546</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.003043267234650286</v>
+        <v>-0.003687816906328435</v>
       </c>
       <c r="C15">
-        <v>-0.0123495042963821</v>
+        <v>0.03092790875528798</v>
       </c>
       <c r="D15">
-        <v>-0.04955828660569685</v>
+        <v>0.05787251869373331</v>
       </c>
       <c r="E15">
-        <v>-0.01608349133671496</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>-0.04302913286624254</v>
+      </c>
+      <c r="F15">
+        <v>0.009468318573063088</v>
+      </c>
+      <c r="G15">
+        <v>0.02667401247207265</v>
+      </c>
+      <c r="H15">
+        <v>0.01446344374356529</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.01178796053411254</v>
+        <v>0.009385129741177571</v>
       </c>
       <c r="C16">
-        <v>-0.04001946115634698</v>
+        <v>0.05325307472819267</v>
       </c>
       <c r="D16">
-        <v>-0.04530219262505215</v>
+        <v>0.03682823470719577</v>
       </c>
       <c r="E16">
-        <v>-0.004867845104548557</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.04005675762157591</v>
+      </c>
+      <c r="F16">
+        <v>-0.006453540487564661</v>
+      </c>
+      <c r="G16">
+        <v>-0.01477994024426777</v>
+      </c>
+      <c r="H16">
+        <v>0.009729696832983829</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1136,19 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1162,227 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.001352126539896568</v>
+        <v>-0.002623447837077162</v>
       </c>
       <c r="C19">
-        <v>-0.02124141120810098</v>
+        <v>0.01644094651280851</v>
       </c>
       <c r="D19">
-        <v>-0.06649738158188362</v>
+        <v>0.03686381153645461</v>
       </c>
       <c r="E19">
-        <v>-0.03763604161030649</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.005297592696407619</v>
+      </c>
+      <c r="F19">
+        <v>0.007370479438568138</v>
+      </c>
+      <c r="G19">
+        <v>0.01682178696774022</v>
+      </c>
+      <c r="H19">
+        <v>-0.01677647499659824</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.0002205185230618206</v>
+        <v>0.004520057870931436</v>
       </c>
       <c r="C20">
-        <v>-0.02893963991232908</v>
+        <v>0.04611492077498262</v>
       </c>
       <c r="D20">
-        <v>-0.06691448568043873</v>
+        <v>0.07103123811775496</v>
       </c>
       <c r="E20">
-        <v>-0.05366803482494144</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.05343330239400536</v>
+      </c>
+      <c r="F20">
+        <v>0.02252616683185967</v>
+      </c>
+      <c r="G20">
+        <v>-0.01147246841112688</v>
+      </c>
+      <c r="H20">
+        <v>0.03084029850262078</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.002010652441730543</v>
+        <v>0.002722647769706414</v>
       </c>
       <c r="C21">
-        <v>-0.03351299695245192</v>
+        <v>0.04588865646591068</v>
       </c>
       <c r="D21">
-        <v>-0.1164282487646002</v>
+        <v>0.1065862400905859</v>
       </c>
       <c r="E21">
-        <v>-0.1252139115225533</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.06938815437289854</v>
+      </c>
+      <c r="F21">
+        <v>0.09739531960352121</v>
+      </c>
+      <c r="G21">
+        <v>0.07147126614875618</v>
+      </c>
+      <c r="H21">
+        <v>-0.08245447879661975</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.002898414740997629</v>
+        <v>-0.007354431924310622</v>
       </c>
       <c r="C22">
-        <v>-0.0540892499733654</v>
+        <v>0.08507409345358041</v>
       </c>
       <c r="D22">
-        <v>-0.2149071917715447</v>
+        <v>0.2152383843735266</v>
       </c>
       <c r="E22">
-        <v>-0.09590889537360642</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.0692989258176599</v>
+      </c>
+      <c r="F22">
+        <v>0.03927182578423001</v>
+      </c>
+      <c r="G22">
+        <v>0.2432623133998764</v>
+      </c>
+      <c r="H22">
+        <v>0.1219986227885088</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.00332524529825492</v>
+        <v>-0.00422784627999264</v>
       </c>
       <c r="C23">
-        <v>-0.05449958178996667</v>
+        <v>0.08720045379035618</v>
       </c>
       <c r="D23">
-        <v>-0.2137939556586017</v>
+        <v>0.2183076066523483</v>
       </c>
       <c r="E23">
-        <v>-0.09594118009353184</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.06628322750709505</v>
+      </c>
+      <c r="F23">
+        <v>0.04198273552508944</v>
+      </c>
+      <c r="G23">
+        <v>0.2369645266879732</v>
+      </c>
+      <c r="H23">
+        <v>0.1156616107141021</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.01771161746833312</v>
+        <v>0.01063191559478921</v>
       </c>
       <c r="C24">
-        <v>-0.06107585103886746</v>
+        <v>0.07094557187080398</v>
       </c>
       <c r="D24">
-        <v>-0.06095558105013802</v>
+        <v>0.03797230079784297</v>
       </c>
       <c r="E24">
-        <v>-0.0101469378905726</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.04984770841232596</v>
+      </c>
+      <c r="F24">
+        <v>-0.005765864896792476</v>
+      </c>
+      <c r="G24">
+        <v>0.003715603534722018</v>
+      </c>
+      <c r="H24">
+        <v>0.01326134597059381</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.01737002735281395</v>
+        <v>0.01471073952126622</v>
       </c>
       <c r="C25">
-        <v>-0.05299831143588805</v>
+        <v>0.06533387265430525</v>
       </c>
       <c r="D25">
-        <v>-0.0495269118476041</v>
+        <v>0.04077206042991473</v>
       </c>
       <c r="E25">
-        <v>-0.01357538198895627</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.03272695028851695</v>
+      </c>
+      <c r="F25">
+        <v>-0.003805846260461866</v>
+      </c>
+      <c r="G25">
+        <v>-0.01121195383722058</v>
+      </c>
+      <c r="H25">
+        <v>0.008791685381239372</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.005582539504938357</v>
+        <v>0.01634991059932297</v>
       </c>
       <c r="C26">
-        <v>-0.01913705407972789</v>
+        <v>0.0324103486549283</v>
       </c>
       <c r="D26">
-        <v>-0.0605456326451202</v>
+        <v>0.04990483899277077</v>
       </c>
       <c r="E26">
-        <v>-0.04195371959877461</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.06809469704174266</v>
+      </c>
+      <c r="F26">
+        <v>0.04755240128076071</v>
+      </c>
+      <c r="G26">
+        <v>0.02776408972228414</v>
+      </c>
+      <c r="H26">
+        <v>-0.0004526118050578622</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1396,253 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.279311117272913</v>
+        <v>0.3135337413529897</v>
       </c>
       <c r="C28">
-        <v>0.1660518116914886</v>
+        <v>-0.08860765653320472</v>
       </c>
       <c r="D28">
-        <v>0.006669430326276764</v>
+        <v>-0.01253711255839378</v>
       </c>
       <c r="E28">
-        <v>-0.03060364818820111</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.05428044143776294</v>
+      </c>
+      <c r="F28">
+        <v>0.04669494196962767</v>
+      </c>
+      <c r="G28">
+        <v>0.06182253921690043</v>
+      </c>
+      <c r="H28">
+        <v>0.02186862623532922</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.004870474373193773</v>
+        <v>0.001455743907242546</v>
       </c>
       <c r="C29">
-        <v>-0.02203891581493223</v>
+        <v>0.0399936337975327</v>
       </c>
       <c r="D29">
-        <v>-0.07248122080945266</v>
+        <v>0.08659192003041495</v>
       </c>
       <c r="E29">
-        <v>-0.04950194331645009</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.1061728678785821</v>
+      </c>
+      <c r="F29">
+        <v>0.03905603149979042</v>
+      </c>
+      <c r="G29">
+        <v>0.01245033762609227</v>
+      </c>
+      <c r="H29">
+        <v>-0.03690362083128604</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.02702915556275123</v>
+        <v>0.01773999134378866</v>
       </c>
       <c r="C30">
-        <v>-0.07394989299762357</v>
+        <v>0.1002269771824606</v>
       </c>
       <c r="D30">
-        <v>-0.150657901635111</v>
+        <v>0.1111296218733875</v>
       </c>
       <c r="E30">
-        <v>-0.06627914527337074</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.09419972599462641</v>
+      </c>
+      <c r="F30">
+        <v>0.01523334580833889</v>
+      </c>
+      <c r="G30">
+        <v>0.02184063919795504</v>
+      </c>
+      <c r="H30">
+        <v>0.0460828074127048</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.03123880078120898</v>
+        <v>0.009935321289519163</v>
       </c>
       <c r="C31">
-        <v>-0.08564234452596811</v>
+        <v>0.09512863478974737</v>
       </c>
       <c r="D31">
-        <v>-0.05052875234287486</v>
+        <v>0.02817159407466167</v>
       </c>
       <c r="E31">
-        <v>-0.02432437315355119</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.02512390495471391</v>
+      </c>
+      <c r="F31">
+        <v>0.01703586411920507</v>
+      </c>
+      <c r="G31">
+        <v>0.01786000312866843</v>
+      </c>
+      <c r="H31">
+        <v>0.006694580848978906</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.01522062287683426</v>
+        <v>0.0147523721088476</v>
       </c>
       <c r="C32">
-        <v>-0.04313989636734825</v>
+        <v>0.05180019578215925</v>
       </c>
       <c r="D32">
-        <v>-0.08717871032361797</v>
+        <v>0.07572100112788797</v>
       </c>
       <c r="E32">
-        <v>-0.07229711270052691</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.01637187205942608</v>
+      </c>
+      <c r="F32">
+        <v>0.04984794990223847</v>
+      </c>
+      <c r="G32">
+        <v>0.03390246063122022</v>
+      </c>
+      <c r="H32">
+        <v>-0.02355978183162661</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.004236326842035076</v>
+        <v>0.007201239757228693</v>
       </c>
       <c r="C33">
-        <v>-0.04224884240060079</v>
+        <v>0.06542173631943174</v>
       </c>
       <c r="D33">
-        <v>-0.1057090917600346</v>
+        <v>0.1030599286548571</v>
       </c>
       <c r="E33">
-        <v>-0.06752649631569775</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.06941483707818627</v>
+      </c>
+      <c r="F33">
+        <v>0.03063010784043324</v>
+      </c>
+      <c r="G33">
+        <v>0.0104326506506292</v>
+      </c>
+      <c r="H33">
+        <v>0.001899395724848745</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.01407948438701159</v>
+        <v>0.009023510438916908</v>
       </c>
       <c r="C34">
-        <v>-0.06138519353256078</v>
+        <v>0.06287072734749523</v>
       </c>
       <c r="D34">
-        <v>-0.05284155610276874</v>
+        <v>0.01945807841307275</v>
       </c>
       <c r="E34">
-        <v>0.03331657662497758</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.03684450158935151</v>
+      </c>
+      <c r="F34">
+        <v>-0.03786887237998185</v>
+      </c>
+      <c r="G34">
+        <v>0.00421498006382052</v>
+      </c>
+      <c r="H34">
+        <v>-0.001661057887879685</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.0002113394015941487</v>
+        <v>0.003792625970589871</v>
       </c>
       <c r="C35">
-        <v>-0.0008583779407484679</v>
+        <v>0.01563203969216365</v>
       </c>
       <c r="D35">
-        <v>-0.00109778018871117</v>
+        <v>0.03383009059874179</v>
       </c>
       <c r="E35">
-        <v>9.361655430483317e-05</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>-0.02364410650868275</v>
+      </c>
+      <c r="F35">
+        <v>0.01963610335653118</v>
+      </c>
+      <c r="G35">
+        <v>-0.001807917060801165</v>
+      </c>
+      <c r="H35">
+        <v>-0.004301141594069132</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.005641687280202274</v>
+        <v>0.01045772226195216</v>
       </c>
       <c r="C36">
-        <v>-0.01043313137550509</v>
+        <v>0.02491911127042575</v>
       </c>
       <c r="D36">
-        <v>-0.06082356825202596</v>
+        <v>0.05985729218921276</v>
       </c>
       <c r="E36">
-        <v>-0.06217010259093303</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.05760690568112234</v>
+      </c>
+      <c r="F36">
+        <v>0.04880827705587389</v>
+      </c>
+      <c r="G36">
+        <v>0.01313078734196412</v>
+      </c>
+      <c r="H36">
+        <v>0.0004979711855959873</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1656,123 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.002190880481684582</v>
+        <v>0.009064329004798964</v>
       </c>
       <c r="C38">
-        <v>-0.009781080570410716</v>
+        <v>0.02940435870384569</v>
       </c>
       <c r="D38">
-        <v>-0.08768779028807602</v>
+        <v>0.08320208852662923</v>
       </c>
       <c r="E38">
-        <v>-0.03451259192637338</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.04642990361996156</v>
+      </c>
+      <c r="F38">
+        <v>0.008563121363520257</v>
+      </c>
+      <c r="G38">
+        <v>0.03231081595395219</v>
+      </c>
+      <c r="H38">
+        <v>0.03702840472910064</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.01144471066514322</v>
+        <v>0.00594128730600725</v>
       </c>
       <c r="C39">
-        <v>-0.06340213144036638</v>
+        <v>0.0894214635342846</v>
       </c>
       <c r="D39">
-        <v>-0.1028921046094028</v>
+        <v>0.07714035126252221</v>
       </c>
       <c r="E39">
-        <v>-0.02513249656295917</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.08832310041886125</v>
+      </c>
+      <c r="F39">
+        <v>-0.007592363171108057</v>
+      </c>
+      <c r="G39">
+        <v>0.002074878372033386</v>
+      </c>
+      <c r="H39">
+        <v>0.01098184213535248</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.01494966962770264</v>
+        <v>0.01327172618198875</v>
       </c>
       <c r="C40">
-        <v>-0.02727939556278637</v>
+        <v>0.04280034424623039</v>
       </c>
       <c r="D40">
-        <v>-0.114979668834432</v>
+        <v>0.07985288235645033</v>
       </c>
       <c r="E40">
-        <v>-0.02342884059161774</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.0701938439091388</v>
+      </c>
+      <c r="F40">
+        <v>-0.02356690859671823</v>
+      </c>
+      <c r="G40">
+        <v>0.08520952713650511</v>
+      </c>
+      <c r="H40">
+        <v>-0.01492524787482267</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.007655553384728024</v>
+        <v>0.01700405811690664</v>
       </c>
       <c r="C41">
-        <v>-0.007224083391856747</v>
+        <v>0.02476816956888778</v>
       </c>
       <c r="D41">
-        <v>-0.0273116011833957</v>
+        <v>0.03705718857412156</v>
       </c>
       <c r="E41">
-        <v>-0.02633648545981006</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.01864457157827058</v>
+      </c>
+      <c r="F41">
+        <v>0.01974564490213895</v>
+      </c>
+      <c r="G41">
+        <v>0.007594679896468335</v>
+      </c>
+      <c r="H41">
+        <v>0.003844293243282492</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1786,71 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.003524016222381175</v>
+        <v>0.008569810408800647</v>
       </c>
       <c r="C43">
-        <v>-0.002122354741435226</v>
+        <v>0.01717547391460523</v>
       </c>
       <c r="D43">
-        <v>-0.04068351978213878</v>
+        <v>0.04709701791302207</v>
       </c>
       <c r="E43">
-        <v>-0.03106150979378103</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.03073260305244419</v>
+      </c>
+      <c r="F43">
+        <v>0.02354656871502328</v>
+      </c>
+      <c r="G43">
+        <v>0.003229708650422601</v>
+      </c>
+      <c r="H43">
+        <v>0.0195303915697106</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01854485426393791</v>
+        <v>0.01012696165461992</v>
       </c>
       <c r="C44">
-        <v>-0.03030133034404772</v>
+        <v>0.05208695970177304</v>
       </c>
       <c r="D44">
-        <v>-0.09765992983733329</v>
+        <v>0.09068445804621406</v>
       </c>
       <c r="E44">
-        <v>-0.08332190967212962</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.07874629609403705</v>
+      </c>
+      <c r="F44">
+        <v>0.03724354071025154</v>
+      </c>
+      <c r="G44">
+        <v>0.04296501792664626</v>
+      </c>
+      <c r="H44">
+        <v>0.02638456904331003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,112 +1864,175 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.00104876148852973</v>
+        <v>-0.002018350698519065</v>
       </c>
       <c r="C46">
-        <v>-0.03252707264708992</v>
+        <v>0.04311458290616588</v>
       </c>
       <c r="D46">
-        <v>-0.08037339749379158</v>
+        <v>0.06265186065417538</v>
       </c>
       <c r="E46">
-        <v>-0.04522036914860274</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.08071427238701764</v>
+      </c>
+      <c r="F46">
+        <v>0.03332870355525012</v>
+      </c>
+      <c r="G46">
+        <v>0.02235282236041918</v>
+      </c>
+      <c r="H46">
+        <v>-0.0003649402262819464</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.06556769045607672</v>
+        <v>0.03002704504608701</v>
       </c>
       <c r="C47">
-        <v>-0.1152656633363004</v>
+        <v>0.1244662133496199</v>
       </c>
       <c r="D47">
-        <v>-0.0588511738833142</v>
+        <v>0.02276507097434887</v>
       </c>
       <c r="E47">
-        <v>-0.02660124786237755</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.001315457668313964</v>
+      </c>
+      <c r="F47">
+        <v>-0.001859325559934731</v>
+      </c>
+      <c r="G47">
+        <v>-0.01883178470297589</v>
+      </c>
+      <c r="H47">
+        <v>0.01070548827070917</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.004379441630989592</v>
+        <v>0.0120877005407613</v>
       </c>
       <c r="C48">
-        <v>-0.01797415420415748</v>
+        <v>0.03400898456904439</v>
       </c>
       <c r="D48">
-        <v>-0.06332142205401488</v>
+        <v>0.0639084345304691</v>
       </c>
       <c r="E48">
-        <v>-0.06599777415208501</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.05532644952675502</v>
+      </c>
+      <c r="F48">
+        <v>0.05687266242997491</v>
+      </c>
+      <c r="G48">
+        <v>0.02023157228193859</v>
+      </c>
+      <c r="H48">
+        <v>0.01333043372543487</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.002127049258740888</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.001799075597008802</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.003235128368343707</v>
       </c>
       <c r="E49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>-2.743348097437106e-05</v>
+      </c>
+      <c r="F49">
+        <v>-0.002062207714008227</v>
+      </c>
+      <c r="G49">
+        <v>-0.004844977506834884</v>
+      </c>
+      <c r="H49">
+        <v>-0.003198676538517934</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.0308224595015127</v>
+        <v>0.01451859527291935</v>
       </c>
       <c r="C50">
-        <v>-0.05871176652297391</v>
+        <v>0.07630575798708304</v>
       </c>
       <c r="D50">
-        <v>-0.0607999013254434</v>
+        <v>0.04153864562587994</v>
       </c>
       <c r="E50">
-        <v>-0.01852564566906521</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.03201070323516069</v>
+      </c>
+      <c r="F50">
+        <v>0.008906679856806808</v>
+      </c>
+      <c r="G50">
+        <v>0.01827332253893017</v>
+      </c>
+      <c r="H50">
+        <v>0.0171741328917148</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.00507400176750962</v>
+        <v>-0.004354942893973201</v>
       </c>
       <c r="C51">
-        <v>-0.005602995924147104</v>
+        <v>0.01846316476565787</v>
       </c>
       <c r="D51">
-        <v>-0.06084111653311414</v>
+        <v>0.04025971349229227</v>
       </c>
       <c r="E51">
-        <v>-0.03740074514138953</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.05897366210740843</v>
+      </c>
+      <c r="F51">
+        <v>0.03888631929547365</v>
+      </c>
+      <c r="G51">
+        <v>0.04857157223415587</v>
+      </c>
+      <c r="H51">
+        <v>-0.0006799752194084332</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2046,123 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1011888568318892</v>
+        <v>0.05846515207319883</v>
       </c>
       <c r="C53">
-        <v>-0.1376335032783661</v>
+        <v>0.1635524535669619</v>
       </c>
       <c r="D53">
-        <v>6.952970390037013e-05</v>
+        <v>-0.02069673208107094</v>
       </c>
       <c r="E53">
-        <v>-0.03546013996447402</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.02669620822823488</v>
+      </c>
+      <c r="F53">
+        <v>0.03949239433360682</v>
+      </c>
+      <c r="G53">
+        <v>0.007608595205353136</v>
+      </c>
+      <c r="H53">
+        <v>0.005746244614586196</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.004426375660591693</v>
+        <v>0.01010792051689021</v>
       </c>
       <c r="C54">
-        <v>-0.02413566639125344</v>
+        <v>0.04091692339076863</v>
       </c>
       <c r="D54">
-        <v>-0.08579612581268847</v>
+        <v>0.07025772335675309</v>
       </c>
       <c r="E54">
-        <v>-0.03248477801211834</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.04709818813705519</v>
+      </c>
+      <c r="F54">
+        <v>0.008783232526875831</v>
+      </c>
+      <c r="G54">
+        <v>0.02425095288597821</v>
+      </c>
+      <c r="H54">
+        <v>0.02802480387385624</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.08391335111493446</v>
+        <v>0.04105159430840762</v>
       </c>
       <c r="C55">
-        <v>-0.1144661875364377</v>
+        <v>0.128597828213188</v>
       </c>
       <c r="D55">
-        <v>-0.0006438159382221786</v>
+        <v>-0.04568499892736696</v>
       </c>
       <c r="E55">
-        <v>0.007853427006502513</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.009267603884454481</v>
+      </c>
+      <c r="F55">
+        <v>0.0008360189170412668</v>
+      </c>
+      <c r="G55">
+        <v>0.01623356735612992</v>
+      </c>
+      <c r="H55">
+        <v>-0.005308996988808119</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1221857858982128</v>
+        <v>0.05843941530099128</v>
       </c>
       <c r="C56">
-        <v>-0.1644187503630325</v>
+        <v>0.1935335033510663</v>
       </c>
       <c r="D56">
-        <v>-0.02090690697220482</v>
+        <v>-0.04306924269796316</v>
       </c>
       <c r="E56">
-        <v>0.01615888887729491</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.03366816627238747</v>
+      </c>
+      <c r="F56">
+        <v>0.001098309052859329</v>
+      </c>
+      <c r="G56">
+        <v>0.07121934217767983</v>
+      </c>
+      <c r="H56">
+        <v>0.005686056505994147</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2176,123 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.004055452312503843</v>
+        <v>0.008982708741350065</v>
       </c>
       <c r="C58">
-        <v>-0.02059320179443084</v>
+        <v>0.06977292559877403</v>
       </c>
       <c r="D58">
-        <v>-0.2242319433633081</v>
+        <v>0.2603798617771578</v>
       </c>
       <c r="E58">
-        <v>-0.1837623721136535</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.09208531805697927</v>
+      </c>
+      <c r="F58">
+        <v>0.1432920182776345</v>
+      </c>
+      <c r="G58">
+        <v>0.1683278824096096</v>
+      </c>
+      <c r="H58">
+        <v>0.08470571801309836</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.2059726456797482</v>
+        <v>0.260616573569345</v>
       </c>
       <c r="C59">
-        <v>0.1208823106233813</v>
+        <v>-0.05399287754281971</v>
       </c>
       <c r="D59">
-        <v>-0.05881092645687089</v>
+        <v>0.04592153841793269</v>
       </c>
       <c r="E59">
-        <v>-0.0413410174356429</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.01263531800210853</v>
+      </c>
+      <c r="F59">
+        <v>0.0192188303967485</v>
+      </c>
+      <c r="G59">
+        <v>0.03224078506196969</v>
+      </c>
+      <c r="H59">
+        <v>-0.03358762946827028</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.176133078416606</v>
+        <v>0.1522927874187072</v>
       </c>
       <c r="C60">
-        <v>-0.112675269742804</v>
+        <v>0.1679374104347361</v>
       </c>
       <c r="D60">
-        <v>-0.1246258448044828</v>
+        <v>0.03606045241131856</v>
       </c>
       <c r="E60">
-        <v>0.06148910046830315</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.1069734494886912</v>
+      </c>
+      <c r="F60">
+        <v>-0.2028104790734236</v>
+      </c>
+      <c r="G60">
+        <v>-0.2528596023592909</v>
+      </c>
+      <c r="H60">
+        <v>-0.1472600638156655</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.02025226920629515</v>
+        <v>0.01231829269909555</v>
       </c>
       <c r="C61">
-        <v>-0.05954180690669877</v>
+        <v>0.08213473252512601</v>
       </c>
       <c r="D61">
-        <v>-0.07446249141121158</v>
+        <v>0.05326240837550275</v>
       </c>
       <c r="E61">
-        <v>-0.008383225285239415</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.0619771047366055</v>
+      </c>
+      <c r="F61">
+        <v>-0.01425451295527673</v>
+      </c>
+      <c r="G61">
+        <v>-0.003751814598757077</v>
+      </c>
+      <c r="H61">
+        <v>0.002344068776252302</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2306,201 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.009619825620166745</v>
+        <v>0.01541305838841867</v>
       </c>
       <c r="C63">
-        <v>-0.02752844153971917</v>
+        <v>0.04655927948103576</v>
       </c>
       <c r="D63">
-        <v>-0.07737100387805078</v>
+        <v>0.04716074380836942</v>
       </c>
       <c r="E63">
-        <v>-0.03727910337174817</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.08365864643329893</v>
+      </c>
+      <c r="F63">
+        <v>0.02127547612039719</v>
+      </c>
+      <c r="G63">
+        <v>0.008083966704028977</v>
+      </c>
+      <c r="H63">
+        <v>0.007861624431845222</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.04532374971373306</v>
+        <v>0.01522853941955026</v>
       </c>
       <c r="C64">
-        <v>-0.09389577066539953</v>
+        <v>0.1051463369885933</v>
       </c>
       <c r="D64">
-        <v>-0.02202861388703617</v>
+        <v>0.01140555200262795</v>
       </c>
       <c r="E64">
-        <v>-0.02900941447624412</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.03386276560839309</v>
+      </c>
+      <c r="F64">
+        <v>0.01884132361838464</v>
+      </c>
+      <c r="G64">
+        <v>-0.02997125393709392</v>
+      </c>
+      <c r="H64">
+        <v>0.04139490070060021</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.02592893256197113</v>
+        <v>0.0258708534981437</v>
       </c>
       <c r="C65">
-        <v>-0.0200967930897024</v>
+        <v>0.04572631305427068</v>
       </c>
       <c r="D65">
-        <v>-0.09777316344025966</v>
+        <v>0.09376983607018843</v>
       </c>
       <c r="E65">
-        <v>-0.04146722999680635</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.07231595545610822</v>
+      </c>
+      <c r="F65">
+        <v>-0.01022368416733521</v>
+      </c>
+      <c r="G65">
+        <v>-0.05171703581318553</v>
+      </c>
+      <c r="H65">
+        <v>0.02112402087742475</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.01989814131274842</v>
+        <v>0.008027941409984377</v>
       </c>
       <c r="C66">
-        <v>-0.07528250755767481</v>
+        <v>0.1107046390254255</v>
       </c>
       <c r="D66">
-        <v>-0.1291542978533364</v>
+        <v>0.1041831294552454</v>
       </c>
       <c r="E66">
-        <v>-0.0298324222498045</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.08569161795864742</v>
+      </c>
+      <c r="F66">
+        <v>-0.007728635329141812</v>
+      </c>
+      <c r="G66">
+        <v>0.02359351598112766</v>
+      </c>
+      <c r="H66">
+        <v>0.01507810432915097</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.01550936854372549</v>
+        <v>0.01810367287356551</v>
       </c>
       <c r="C67">
-        <v>-0.02054542029731397</v>
+        <v>0.03663966930427669</v>
       </c>
       <c r="D67">
-        <v>-0.04898481580636542</v>
+        <v>0.04386712499731001</v>
       </c>
       <c r="E67">
-        <v>0.002022329711451462</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.03614599747853953</v>
+      </c>
+      <c r="F67">
+        <v>-0.02025574258920914</v>
+      </c>
+      <c r="G67">
+        <v>0.007473231785706786</v>
+      </c>
+      <c r="H67">
+        <v>0.02711675941013487</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.2151346461629945</v>
+        <v>0.2797131650866757</v>
       </c>
       <c r="C68">
-        <v>0.1321285326719713</v>
+        <v>-0.06658677588042801</v>
       </c>
       <c r="D68">
-        <v>-0.02748739999650373</v>
+        <v>0.03192352767653438</v>
       </c>
       <c r="E68">
-        <v>-0.02673420151554326</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.009123827818608187</v>
+      </c>
+      <c r="F68">
+        <v>0.0246814885727834</v>
+      </c>
+      <c r="G68">
+        <v>0.0513054100245807</v>
+      </c>
+      <c r="H68">
+        <v>-0.007608578553129661</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.04849364239265599</v>
+        <v>0.01473116104320546</v>
       </c>
       <c r="C69">
-        <v>-0.1166958984171349</v>
+        <v>0.1115130215631007</v>
       </c>
       <c r="D69">
-        <v>-0.07210532553177923</v>
+        <v>0.01743855525272322</v>
       </c>
       <c r="E69">
-        <v>-0.02884342293081052</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.01186586444868785</v>
+      </c>
+      <c r="F69">
+        <v>-0.01017288261635737</v>
+      </c>
+      <c r="G69">
+        <v>-0.009325072087267071</v>
+      </c>
+      <c r="H69">
+        <v>-0.00666604558583846</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2514,669 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.2347610559184333</v>
+        <v>0.2724815564640179</v>
       </c>
       <c r="C71">
-        <v>0.153801859330418</v>
+        <v>-0.081634941255759</v>
       </c>
       <c r="D71">
-        <v>-0.01668725496596144</v>
+        <v>0.008108150145093937</v>
       </c>
       <c r="E71">
-        <v>-0.003715008109170837</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.007373743840259516</v>
+      </c>
+      <c r="F71">
+        <v>0.01225564348232488</v>
+      </c>
+      <c r="G71">
+        <v>0.04424922670216699</v>
+      </c>
+      <c r="H71">
+        <v>0.01697915274992129</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.09748015896355458</v>
+        <v>0.06333415463242112</v>
       </c>
       <c r="C72">
-        <v>-0.07854753550749585</v>
+        <v>0.1242931973691862</v>
       </c>
       <c r="D72">
-        <v>-0.09870165721836947</v>
+        <v>0.04166581096521334</v>
       </c>
       <c r="E72">
-        <v>-0.02277057022115377</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.08253920943128393</v>
+      </c>
+      <c r="F72">
+        <v>-0.01830680739047381</v>
+      </c>
+      <c r="G72">
+        <v>-0.03333572441270245</v>
+      </c>
+      <c r="H72">
+        <v>0.0001997993299737019</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.1719742355175775</v>
+        <v>0.1586307762891223</v>
       </c>
       <c r="C73">
-        <v>-0.0874745639737616</v>
+        <v>0.166942082848082</v>
       </c>
       <c r="D73">
-        <v>-0.1880245337243319</v>
+        <v>0.05482060806747253</v>
       </c>
       <c r="E73">
-        <v>0.1002435130086778</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.2698926984489166</v>
+      </c>
+      <c r="F73">
+        <v>-0.300789255763624</v>
+      </c>
+      <c r="G73">
+        <v>-0.4045267712168603</v>
+      </c>
+      <c r="H73">
+        <v>-0.1526234494540857</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.09693227965255093</v>
+        <v>0.05128663838035711</v>
       </c>
       <c r="C74">
-        <v>-0.1226413519938537</v>
+        <v>0.1416642177555271</v>
       </c>
       <c r="D74">
-        <v>0.04460039885112328</v>
+        <v>-0.04772028444023836</v>
       </c>
       <c r="E74">
-        <v>-0.01767988284214915</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.03118793854088666</v>
+      </c>
+      <c r="F74">
+        <v>0.03334633281981673</v>
+      </c>
+      <c r="G74">
+        <v>-0.006193922440131286</v>
+      </c>
+      <c r="H74">
+        <v>-0.003561451408171614</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2060206689605677</v>
+        <v>0.09618906977762626</v>
       </c>
       <c r="C75">
-        <v>-0.2203750172664612</v>
+        <v>0.2608465496187539</v>
       </c>
       <c r="D75">
-        <v>0.05306685703940988</v>
+        <v>-0.1182888641543818</v>
       </c>
       <c r="E75">
-        <v>0.0970839329077671</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.1186353831521153</v>
+      </c>
+      <c r="F75">
+        <v>-0.05272276528734717</v>
+      </c>
+      <c r="G75">
+        <v>0.1079835706145744</v>
+      </c>
+      <c r="H75">
+        <v>0.08337988721909088</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1248110682427197</v>
+        <v>0.05890253607775404</v>
       </c>
       <c r="C76">
-        <v>-0.1484473868139389</v>
+        <v>0.1780272074179172</v>
       </c>
       <c r="D76">
-        <v>-0.004622912642027965</v>
+        <v>-0.05002677698217257</v>
       </c>
       <c r="E76">
-        <v>0.02227212023014625</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.04092982569000735</v>
+      </c>
+      <c r="F76">
+        <v>-0.00840996067152335</v>
+      </c>
+      <c r="G76">
+        <v>0.04546127368559754</v>
+      </c>
+      <c r="H76">
+        <v>0.01837434232645806</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.003844058582194591</v>
+        <v>-0.002032620046887483</v>
       </c>
       <c r="C77">
-        <v>-0.08193797089238035</v>
+        <v>0.1216460600717757</v>
       </c>
       <c r="D77">
-        <v>-0.2303363789776831</v>
+        <v>0.541255121281526</v>
       </c>
       <c r="E77">
-        <v>-0.137112785740439</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.7469716020427472</v>
+      </c>
+      <c r="F77">
+        <v>-0.1547105537975981</v>
+      </c>
+      <c r="G77">
+        <v>-0.1985742212880938</v>
+      </c>
+      <c r="H77">
+        <v>-0.007411597012469686</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.03206290449153106</v>
+        <v>0.0229123718792814</v>
       </c>
       <c r="C78">
-        <v>-0.07556868677097432</v>
+        <v>0.09589537941420526</v>
       </c>
       <c r="D78">
-        <v>-0.1578415359164184</v>
+        <v>0.08226931034548159</v>
       </c>
       <c r="E78">
-        <v>-0.09689016332742023</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.09009824637982179</v>
+      </c>
+      <c r="F78">
+        <v>0.04464496299772711</v>
+      </c>
+      <c r="G78">
+        <v>0.1019703097685948</v>
+      </c>
+      <c r="H78">
+        <v>-0.03595581283428196</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.1069337361616327</v>
+        <v>0.05066746807519214</v>
       </c>
       <c r="C79">
-        <v>-0.2132598434426551</v>
+        <v>0.2171555121225152</v>
       </c>
       <c r="D79">
-        <v>0.5043283634479022</v>
+        <v>-0.1357546384936838</v>
       </c>
       <c r="E79">
-        <v>-0.7529525033605193</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.09945849036160696</v>
+      </c>
+      <c r="F79">
+        <v>0.7851978896520737</v>
+      </c>
+      <c r="G79">
+        <v>-0.4331109598314912</v>
+      </c>
+      <c r="H79">
+        <v>-0.02907984398897666</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.001168546024041047</v>
+        <v>0.006916906513051507</v>
       </c>
       <c r="C80">
-        <v>-0.04635662401147515</v>
+        <v>0.04617868214597125</v>
       </c>
       <c r="D80">
-        <v>-0.04653887216337927</v>
+        <v>0.02720388620987765</v>
       </c>
       <c r="E80">
-        <v>-0.006681834609642454</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.06837436934911968</v>
+      </c>
+      <c r="F80">
+        <v>-0.001850558395550813</v>
+      </c>
+      <c r="G80">
+        <v>0.01867159475884171</v>
+      </c>
+      <c r="H80">
+        <v>-0.09151239888481465</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.09693120089562703</v>
+        <v>0.03305410605210542</v>
       </c>
       <c r="C81">
-        <v>-0.1423850698545892</v>
+        <v>0.1583133640740417</v>
       </c>
       <c r="D81">
-        <v>0.07395630152029148</v>
+        <v>-0.07118373347698914</v>
       </c>
       <c r="E81">
-        <v>0.007623563925523905</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.0583142979291424</v>
+      </c>
+      <c r="F81">
+        <v>0.05160174971852725</v>
+      </c>
+      <c r="G81">
+        <v>0.06670956438428848</v>
+      </c>
+      <c r="H81">
+        <v>-0.004678275291445702</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.2011310555701418</v>
+        <v>0.07647792823215389</v>
       </c>
       <c r="C82">
-        <v>-0.3121790868404073</v>
+        <v>0.2945254209372825</v>
       </c>
       <c r="D82">
-        <v>0.1075174129201659</v>
+        <v>-0.2141642904047551</v>
       </c>
       <c r="E82">
-        <v>0.2343273366532155</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.1180806394577579</v>
+      </c>
+      <c r="F82">
+        <v>-0.1137441511976092</v>
+      </c>
+      <c r="G82">
+        <v>0.1494693152561799</v>
+      </c>
+      <c r="H82">
+        <v>0.0116160743546514</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.01395500348869761</v>
+        <v>-0.007702274912986577</v>
       </c>
       <c r="C83">
-        <v>-0.04941080815838395</v>
+        <v>0.01762088836037408</v>
       </c>
       <c r="D83">
-        <v>-0.005599613767557545</v>
+        <v>0.02388854128955639</v>
       </c>
       <c r="E83">
-        <v>-0.04124798758924933</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.1020498803885589</v>
+      </c>
+      <c r="F83">
+        <v>0.09528382945028165</v>
+      </c>
+      <c r="G83">
+        <v>0.2701624469273838</v>
+      </c>
+      <c r="H83">
+        <v>-0.8930658613049105</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.0008609472873863909</v>
+        <v>-0.00416089559801055</v>
       </c>
       <c r="C84">
-        <v>-0.003336019304578364</v>
+        <v>0.01671131268696349</v>
       </c>
       <c r="D84">
-        <v>-0.01087364657316372</v>
+        <v>0.04238037510967022</v>
       </c>
       <c r="E84">
-        <v>0.0002656400601582996</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>-0.01853395747443886</v>
+      </c>
+      <c r="F84">
+        <v>0.03032106194253852</v>
+      </c>
+      <c r="G84">
+        <v>0.05353347480453525</v>
+      </c>
+      <c r="H84">
+        <v>0.06077635554345737</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1275260179446776</v>
+        <v>0.05455627127636874</v>
       </c>
       <c r="C85">
-        <v>-0.1544490422977021</v>
+        <v>0.1764948200732083</v>
       </c>
       <c r="D85">
-        <v>0.08164594184383078</v>
+        <v>-0.1119080795005366</v>
       </c>
       <c r="E85">
-        <v>-0.006173578572527282</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.02381818379050024</v>
+      </c>
+      <c r="F85">
+        <v>0.0578341387845574</v>
+      </c>
+      <c r="G85">
+        <v>0.01732743650122543</v>
+      </c>
+      <c r="H85">
+        <v>0.01837300636681979</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.02229941283620823</v>
+        <v>0.01627262300645257</v>
       </c>
       <c r="C86">
-        <v>-0.01211336313722915</v>
+        <v>0.04161449942926633</v>
       </c>
       <c r="D86">
-        <v>-0.1129910780930735</v>
+        <v>0.1089533122710108</v>
       </c>
       <c r="E86">
-        <v>-0.05130999436431841</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.009302721212425645</v>
+      </c>
+      <c r="F86">
+        <v>0.02255437904663764</v>
+      </c>
+      <c r="G86">
+        <v>-0.002226384116429713</v>
+      </c>
+      <c r="H86">
+        <v>0.01468379313997428</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.02047370493898996</v>
+        <v>0.01008752395191652</v>
       </c>
       <c r="C87">
-        <v>-0.03732156067587007</v>
+        <v>0.06912467990312747</v>
       </c>
       <c r="D87">
-        <v>-0.1371548310624136</v>
+        <v>0.1237448163062061</v>
       </c>
       <c r="E87">
-        <v>-0.09262107170836793</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.06000675247729578</v>
+      </c>
+      <c r="F87">
+        <v>0.04656390187305308</v>
+      </c>
+      <c r="G87">
+        <v>0.08336701864178069</v>
+      </c>
+      <c r="H87">
+        <v>0.006194792948259406</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.04598085368626304</v>
+        <v>0.03391691271214829</v>
       </c>
       <c r="C88">
-        <v>-0.04986690288650566</v>
+        <v>0.07158009224193365</v>
       </c>
       <c r="D88">
-        <v>-0.008149663058731811</v>
+        <v>0.01462342284853985</v>
       </c>
       <c r="E88">
-        <v>-0.02520688884343606</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.03699128392437857</v>
+      </c>
+      <c r="F88">
+        <v>0.02199643435335612</v>
+      </c>
+      <c r="G88">
+        <v>-0.01005849297013186</v>
+      </c>
+      <c r="H88">
+        <v>0.0106314339979881</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.3503001884777499</v>
+        <v>0.3973334441539155</v>
       </c>
       <c r="C89">
-        <v>0.2912670846627496</v>
+        <v>-0.1624042116864236</v>
       </c>
       <c r="D89">
-        <v>-0.02769725632357826</v>
+        <v>0.05033523200230355</v>
       </c>
       <c r="E89">
-        <v>-0.1149795273186029</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.02880297545351088</v>
+      </c>
+      <c r="F89">
+        <v>0.07450938084566586</v>
+      </c>
+      <c r="G89">
+        <v>0.08269770065186613</v>
+      </c>
+      <c r="H89">
+        <v>-0.05292476955692586</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.2791159875451987</v>
+        <v>0.3227846097446612</v>
       </c>
       <c r="C90">
-        <v>0.2105710012977501</v>
+        <v>-0.1028042483142185</v>
       </c>
       <c r="D90">
-        <v>-0.05896368632906776</v>
+        <v>0.03273391783477034</v>
       </c>
       <c r="E90">
-        <v>-0.004517711066445722</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.0006106418678834591</v>
+      </c>
+      <c r="F90">
+        <v>-0.007717494146509932</v>
+      </c>
+      <c r="G90">
+        <v>0.05697733200131794</v>
+      </c>
+      <c r="H90">
+        <v>-0.00450171356863105</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.1314840620163575</v>
+        <v>0.06373559263452692</v>
       </c>
       <c r="C91">
-        <v>-0.2005619199051957</v>
+        <v>0.2026790480472397</v>
       </c>
       <c r="D91">
-        <v>0.09076989582473677</v>
+        <v>-0.09645421160577003</v>
       </c>
       <c r="E91">
-        <v>-0.0342512121248601</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.08642404601492337</v>
+      </c>
+      <c r="F91">
+        <v>0.0602526773955234</v>
+      </c>
+      <c r="G91">
+        <v>0.01204800928777628</v>
+      </c>
+      <c r="H91">
+        <v>-0.02015901525648437</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.2691781987169302</v>
+        <v>0.3391489062500989</v>
       </c>
       <c r="C92">
-        <v>0.2392971657604342</v>
+        <v>-0.1433486508749166</v>
       </c>
       <c r="D92">
-        <v>0.03577039098818174</v>
+        <v>0.02909439371292331</v>
       </c>
       <c r="E92">
-        <v>-0.02139224845584263</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.06432956589021617</v>
+      </c>
+      <c r="F92">
+        <v>0.03637368171700614</v>
+      </c>
+      <c r="G92">
+        <v>-0.003297500478616193</v>
+      </c>
+      <c r="H92">
+        <v>0.1369895625214946</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.2963875065291806</v>
+        <v>0.3290955344659071</v>
       </c>
       <c r="C93">
-        <v>0.2159764560912908</v>
+        <v>-0.1176483841367521</v>
       </c>
       <c r="D93">
-        <v>0.0242932027989151</v>
+        <v>-0.02561166462737153</v>
       </c>
       <c r="E93">
-        <v>0.0118290193641736</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.005439285827892388</v>
+      </c>
+      <c r="F93">
+        <v>0.01041118452275992</v>
+      </c>
+      <c r="G93">
+        <v>-0.02101901791064001</v>
+      </c>
+      <c r="H93">
+        <v>0.02410167646016033</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.2471979595701919</v>
+        <v>0.1185070446875071</v>
       </c>
       <c r="C94">
-        <v>-0.2882308317195609</v>
+        <v>0.3204274626589138</v>
       </c>
       <c r="D94">
-        <v>0.2007898007403462</v>
+        <v>-0.342562114645661</v>
       </c>
       <c r="E94">
-        <v>0.3067448712598675</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.1587303239721245</v>
+      </c>
+      <c r="F94">
+        <v>-0.1475577549635335</v>
+      </c>
+      <c r="G94">
+        <v>0.2939292464062901</v>
+      </c>
+      <c r="H94">
+        <v>0.110089279225553</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.007030260576260541</v>
+        <v>0.01543061588906873</v>
       </c>
       <c r="C95">
-        <v>-0.05176063738886494</v>
+        <v>0.07845347340924276</v>
       </c>
       <c r="D95">
-        <v>-0.1101621656320515</v>
+        <v>0.1394883582347125</v>
       </c>
       <c r="E95">
-        <v>-0.04386978727938483</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.0875890959971876</v>
+      </c>
+      <c r="F95">
+        <v>-0.04074058376469034</v>
+      </c>
+      <c r="G95">
+        <v>-0.0641852198691978</v>
+      </c>
+      <c r="H95">
+        <v>0.07431975835226899</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3190,71 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.002709464650126975</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.000880978759960231</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>0.0003003428048851084</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>-0.003460617736410607</v>
+      </c>
+      <c r="F97">
+        <v>0.0005310279310868092</v>
+      </c>
+      <c r="G97">
+        <v>0.00100744861822465</v>
+      </c>
+      <c r="H97">
+        <v>0.005636744506475777</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.145252756817368</v>
+        <v>0.1346172067812472</v>
       </c>
       <c r="C98">
-        <v>-0.1055834538405231</v>
+        <v>0.1655363883715155</v>
       </c>
       <c r="D98">
-        <v>-0.1225145293205074</v>
+        <v>0.01023495850318605</v>
       </c>
       <c r="E98">
-        <v>0.1084552063609942</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.1738570900466071</v>
+      </c>
+      <c r="F98">
+        <v>-0.2508741424570544</v>
+      </c>
+      <c r="G98">
+        <v>-0.2980728990282134</v>
+      </c>
+      <c r="H98">
+        <v>-0.1306720855476867</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3268,19 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3294,71 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.00402331504348391</v>
+        <v>0.00174418842613453</v>
       </c>
       <c r="C101">
-        <v>-0.02123986725091718</v>
+        <v>0.03919211078046605</v>
       </c>
       <c r="D101">
-        <v>-0.07241001696188119</v>
+        <v>0.08579417334329968</v>
       </c>
       <c r="E101">
-        <v>-0.04994765754235025</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.1054971423191266</v>
+      </c>
+      <c r="F101">
+        <v>0.03892594981536008</v>
+      </c>
+      <c r="G101">
+        <v>0.01334285078618981</v>
+      </c>
+      <c r="H101">
+        <v>-0.03638298277590682</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.0822398951514358</v>
+        <v>0.01863470923268015</v>
       </c>
       <c r="C102">
-        <v>-0.1668513732435469</v>
+        <v>0.1362049575375365</v>
       </c>
       <c r="D102">
-        <v>0.0175375471358695</v>
+        <v>-0.09272537042428453</v>
       </c>
       <c r="E102">
-        <v>0.107226552295508</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.06253470947834992</v>
+      </c>
+      <c r="F102">
+        <v>-0.08252292291259275</v>
+      </c>
+      <c r="G102">
+        <v>0.01288753813794405</v>
+      </c>
+      <c r="H102">
+        <v>-0.02258813892689973</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3372,19 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3396,15 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
